--- a/Packages/cn.etetet.spell/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.spell/Luban/Config/Base/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.spell/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249B2AF5-5C8C-A04D-9FD2-103952AE496D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05020C0E-4091-1A47-9F30-3684DD209144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -114,13 +114,6 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.spell/Luban/Config/Datas/Text.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -476,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -584,27 +577,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4" si="0">_xlfn.CONCAT("ET.",B4,"ConfigCategory")</f>
-        <v>ET.TextConfigCategory</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4" si="1">_xlfn.CONCAT(B4,"Config")</f>
-        <v>TextConfig</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" ref="L4" si="2">_xlfn.CONCAT(B4,"ConfigCategory")</f>
-        <v>TextConfigCategory</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="2"/>
@@ -656,9 +629,6 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
